--- a/08_ProtectMode/17 10-10-12分页 内核文件.xlsx
+++ b/08_ProtectMode/17 10-10-12分页 内核文件.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_ProtectMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCD62B-31DB-4D8A-985E-C9D5530CA463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCADE93-A46D-43A2-ACEC-4C745294C815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,13 +470,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -1152,33 +1151,25 @@
       <c r="C27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1195,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A540-4C77-4CA2-8F90-E0420E79A19B}">
   <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
